--- a/DataGenerator/XLSXS/ConditionData.xlsx
+++ b/DataGenerator/XLSXS/ConditionData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\DG_Project\DataGenerator\XLSXS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jehee\Documents\GitHub\DG_Project\DataGenerator\XLSXS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1851CC71-EB6F-4F31-ABE0-BE2418D570CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E89F50AD-5C72-4987-A343-43A5FCF99C88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="735" windowWidth="21600" windowHeight="11175" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
   <si>
     <t>ID</t>
   </si>
@@ -57,23 +57,50 @@
     <t>eCondition</t>
   </si>
   <si>
-    <t>LAPLACIAN_SYNERGY</t>
-  </si>
-  <si>
     <t>HP_UNDER_N</t>
   </si>
   <si>
-    <t>SHIELD_SYNERGY</t>
-  </si>
-  <si>
-    <t>NO_ALLY_NEAR_N</t>
-  </si>
-  <si>
-    <t>int</t>
+    <t>LAPLACIAN L</t>
+  </si>
+  <si>
+    <t>LAPLACIAN K</t>
+  </si>
+  <si>
+    <t>LAPLACIAN J</t>
+  </si>
+  <si>
+    <t>LAPLACIAN M</t>
+  </si>
+  <si>
+    <t>ARMOR_SYNERGY</t>
+  </si>
+  <si>
+    <t>True일 경우</t>
+  </si>
+  <si>
+    <t>LAPLACIAN_ONLY</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>value1</t>
+    <t>conditionType</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>값1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>값2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>값3</t>
+  </si>
+  <si>
+    <t>값4</t>
+  </si>
+  <si>
+    <t>long</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -81,7 +108,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -107,6 +134,13 @@
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="4">
@@ -156,7 +190,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -175,6 +209,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -456,15 +493,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="17.875" customWidth="1"/>
+    <col min="3" max="3" width="20.75" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -474,17 +515,17 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>7</v>
+      <c r="D1" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -492,7 +533,9 @@
         <v>3</v>
       </c>
       <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
+      <c r="C2" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="D2" s="4" t="s">
         <v>4</v>
       </c>
@@ -506,7 +549,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -515,60 +558,117 @@
         <v>9</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="40.5" thickBot="1" x14ac:dyDescent="0.35">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="5">
         <v>790000</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="6">
-        <v>50</v>
+        <v>17</v>
+      </c>
+      <c r="D4" s="5">
+        <v>100</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
     </row>
-    <row r="5" spans="1:7" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="5">
-        <v>791200</v>
+        <v>790001</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>12</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="6">
-        <v>2</v>
+        <v>17</v>
+      </c>
+      <c r="D5" s="5">
+        <v>200</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
     </row>
     <row r="6" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
+      <c r="A6" s="5">
+        <v>790002</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="5">
+        <v>300</v>
+      </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
+    </row>
+    <row r="7" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="5">
+        <v>790003</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="5">
+        <v>400</v>
+      </c>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+    </row>
+    <row r="8" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="5">
+        <v>791200</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="6">
+        <v>5000</v>
+      </c>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+    </row>
+    <row r="9" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="5">
+        <v>799999</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/DataGenerator/XLSXS/ConditionData.xlsx
+++ b/DataGenerator/XLSXS/ConditionData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jehee\Documents\GitHub\DG_Project\DataGenerator\XLSXS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\DG_Project\DataGenerator\XLSXS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E89F50AD-5C72-4987-A343-43A5FCF99C88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DA8BA49-B29C-4BE7-AD29-60BE1508EF8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -496,16 +496,16 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
   <cols>
     <col min="2" max="2" width="17.875" customWidth="1"/>
     <col min="3" max="3" width="20.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -528,7 +528,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -549,7 +549,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -570,7 +570,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A4" s="5">
         <v>790000</v>
       </c>
@@ -587,7 +587,7 @@
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
     </row>
-    <row r="5" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A5" s="5">
         <v>790001</v>
       </c>
@@ -604,7 +604,7 @@
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
     </row>
-    <row r="6" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A6" s="5">
         <v>790002</v>
       </c>
@@ -621,7 +621,7 @@
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
     </row>
-    <row r="7" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A7" s="5">
         <v>790003</v>
       </c>
@@ -638,7 +638,7 @@
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
     </row>
-    <row r="8" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A8" s="5">
         <v>791200</v>
       </c>
@@ -655,9 +655,9 @@
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
     </row>
-    <row r="9" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A9" s="5">
-        <v>799999</v>
+        <v>1</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>16</v>

--- a/DataGenerator/XLSXS/ConditionData.xlsx
+++ b/DataGenerator/XLSXS/ConditionData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\DG_Project\DataGenerator\XLSXS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jehee\Documents\GitHub\DG_Project\DataGenerator\XLSXS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DA8BA49-B29C-4BE7-AD29-60BE1508EF8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EB2336C-FE9F-4141-B587-AD1DCD1FD7B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -496,16 +496,16 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="17.875" customWidth="1"/>
     <col min="3" max="3" width="20.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="1" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -528,7 +528,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="2" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -549,7 +549,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="3" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -570,7 +570,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="4" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="5">
         <v>790000</v>
       </c>
@@ -583,11 +583,13 @@
       <c r="D4" s="5">
         <v>100</v>
       </c>
-      <c r="E4" s="5"/>
+      <c r="E4" s="5">
+        <v>101</v>
+      </c>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
     </row>
-    <row r="5" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="5" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="5">
         <v>790001</v>
       </c>
@@ -600,11 +602,13 @@
       <c r="D5" s="5">
         <v>200</v>
       </c>
-      <c r="E5" s="5"/>
+      <c r="E5" s="5">
+        <v>201</v>
+      </c>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
     </row>
-    <row r="6" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="6" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="5">
         <v>790002</v>
       </c>
@@ -617,11 +621,13 @@
       <c r="D6" s="5">
         <v>300</v>
       </c>
-      <c r="E6" s="5"/>
+      <c r="E6" s="5">
+        <v>301</v>
+      </c>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
     </row>
-    <row r="7" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="7" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="5">
         <v>790003</v>
       </c>
@@ -634,11 +640,13 @@
       <c r="D7" s="5">
         <v>400</v>
       </c>
-      <c r="E7" s="5"/>
+      <c r="E7" s="5">
+        <v>401</v>
+      </c>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
     </row>
-    <row r="8" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="8" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="5">
         <v>791200</v>
       </c>
@@ -655,7 +663,7 @@
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
     </row>
-    <row r="9" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="9" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="5">
         <v>1</v>
       </c>
